--- a/Configs/Datas/AreaData.xlsx
+++ b/Configs/Datas/AreaData.xlsx
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1149,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F6">
         <v>180</v>

--- a/Configs/Datas/AreaData.xlsx
+++ b/Configs/Datas/AreaData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12525"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -1023,19 +1023,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="5" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="18.6272727272727" customWidth="1"/>
+    <col min="4" max="5" width="10.6272727272727" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="22.7545454545455" customWidth="1"/>
+    <col min="8" max="8" width="21.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:6">
+    <row r="4" ht="28" spans="1:6">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1158,6 +1158,29 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>21013</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
@@ -1177,7 +1200,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1194,7 +1217,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/AreaData.xlsx
+++ b/Configs/Datas/AreaData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>gun2</t>
+  </si>
+  <si>
+    <t>aoe原地</t>
   </si>
 </sst>
 </file>
@@ -1023,13 +1026,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="18.6272727272727" customWidth="1"/>
     <col min="4" max="5" width="10.6272727272727" customWidth="1"/>
@@ -1181,6 +1184,29 @@
         <v>1</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8">
+        <v>21014</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>180</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
     </row>
